--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail5 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>1.7488869760793e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.389770648926393</v>
+        <v>8.8612652517527e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.803250690913488</v>
+        <v>2.50373072327496e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.8612652517527e-07</v>
+        <v>-0.08289509815855628</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.50373072327496e-06</v>
+        <v>0.1680760064948263</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.08289509815855628</v>
+        <v>0.03504007643951106</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1680760064948263</v>
+        <v>1.806694865403462</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.03504007643951106</v>
+        <v>1.635258571285942</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.758426355661232</v>
+        <v>4.309516662402096</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.635258571285942</v>
+        <v>1.006436012810632e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.309516662402096</v>
+        <v>156290534.7006194</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.006436012810632e-15</v>
+        <v>7.548169993795832e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>156290534.7006194</v>
+        <v>24.58394199216875</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.548169993795832e-07</v>
+        <v>0.0001441053938524455</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>24.58394199216875</v>
+        <v>8.20326975872214</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001441053938524455</v>
+        <v>1.435639620308027</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.20326975872214</v>
+        <v>0.009697375737158306</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.435639620308027</v>
+        <v>3.060377848032454</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009697375737158306</v>
+        <v>0.9545312557860474</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.060377848032454</v>
+        <v>1.640509381000747</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9545312557860474</v>
+        <v>87</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.640509381000747</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2126920251667698</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>1.558795118039409e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.105459094956206</v>
+        <v>7.15776966852255e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.5023625175370858</v>
+        <v>2.490687273991132e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.15776966852255e-07</v>
+        <v>-0.07545366471868627</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.490687273991132e-06</v>
+        <v>0.1357423154212974</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.07545366471868627</v>
+        <v>0.02406433365396264</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1357423154212974</v>
+        <v>1.823738206715835</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02406433365396264</v>
+        <v>1.768123575511806</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.781456841193183</v>
+        <v>3.912270064916472</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.768123575511806</v>
+        <v>9.235075668372215e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.912270064916472</v>
+        <v>167996112.6351159</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.235075668372215e-16</v>
+        <v>7.036637646617715e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>167996112.6351159</v>
+        <v>26.06387133671188</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.036637646617715e-07</v>
+        <v>0.0001625770527555892</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>26.06387133671188</v>
+        <v>10.4891409241929</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001625770527555892</v>
+        <v>1.146256615252273</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.4891409241929</v>
+        <v>0.0178870650699652</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.146256615252273</v>
+        <v>2.685458948999238</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0178870650699652</v>
+        <v>0.95408468346346</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.685458948999238</v>
+        <v>1.609711819309359</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.95408468346346</v>
+        <v>86</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.609711819309359</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2299819446145254</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>1.432142146769224e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.9432601233942512</v>
+        <v>5.948178536637071e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.2139391281188474</v>
+        <v>2.479947584599545e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.948178536637071e-07</v>
+        <v>-0.06881777312955649</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.479947584599545e-06</v>
+        <v>0.1086948257446203</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.06881777312955649</v>
+        <v>0.01651983887209256</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1086948257446203</v>
+        <v>1.841484989550086</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01651983887209256</v>
+        <v>1.960195090251581</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.803300404448238</v>
+        <v>3.934148248380953</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.960195090251581</v>
+        <v>9.132646951211833e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.934148248380953</v>
+        <v>167003283.3489739</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.132646951211833e-16</v>
+        <v>7.09162865596077e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>167003283.3489739</v>
+        <v>25.47104061335769</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.09162865596077e-07</v>
+        <v>0.0001902179020160341</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>25.47104061335769</v>
+        <v>12.01298030967604</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001902179020160341</v>
+        <v>1.053958432502609</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.01298030967604</v>
+        <v>0.02745066803440462</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.053958432502609</v>
+        <v>2.389884783647058</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02745066803440462</v>
+        <v>0.9556272743322758</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.389884783647058</v>
+        <v>1.592775070418366</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9556272743322758</v>
+        <v>99</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.592775070418366</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2430138318745275</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>1.344498338111845e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.8696469307506624</v>
+        <v>5.160836181712041e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5516880739609733</v>
+        <v>2.470766941322849e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.160836181712041e-07</v>
+        <v>-0.0640006742972571</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.470766941322849e-06</v>
+        <v>0.09262742282756121</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.0640006742972571</v>
+        <v>0.01266089751398307</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.09262742282756121</v>
+        <v>1.847629396339364</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01266089751398307</v>
+        <v>1.855883035055078</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.813365990936612</v>
+        <v>3.887830426692294</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.855883035055078</v>
+        <v>9.399925262624619e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.887830426692294</v>
+        <v>160040060.9834666</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.399925262624619e-16</v>
+        <v>7.42168753006727e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>160040060.9834666</v>
+        <v>24.07586042891354</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.42168753006727e-07</v>
+        <v>0.0001907789418424703</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>24.07586042891354</v>
+        <v>11.40822636671463</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001907789418424703</v>
+        <v>1.120297068423385</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.40822636671463</v>
+        <v>0.0248294269122958</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.120297068423385</v>
+        <v>2.603516649508304</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0248294269122958</v>
+        <v>0.9564859196377459</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.603516649508304</v>
+        <v>1.622116070053046</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9564859196377459</v>
+        <v>99</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.622116070053046</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2786735073702278</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>1.279503508919814e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.8481177252098125</v>
+        <v>4.635684725501107e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6873852819081874</v>
+        <v>2.462621030021288e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.635684725501107e-07</v>
+        <v>-0.06040351651499944</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.462621030021288e-06</v>
+        <v>0.08396045706014071</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.06040351651499944</v>
+        <v>0.01068818133683821</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.08396045706014071</v>
+        <v>1.878897548808634</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01068818133683821</v>
+        <v>1.669255086623679</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.866292315138755</v>
+        <v>4.473256361582989</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.669255086623679</v>
+        <v>8.019437948464102e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.473256361582989</v>
+        <v>186162592.499822</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.019437948464102e-16</v>
+        <v>6.433945557529421e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>186162592.499822</v>
+        <v>27.79257382418132</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>6.433945557529421e-07</v>
+        <v>0.000173070698708081</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>27.79257382418132</v>
+        <v>8.812722009467928</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000173070698708081</v>
+        <v>1.804571929864428</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.812722009467928</v>
+        <v>0.01344137472375365</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.804571929864428</v>
+        <v>3.069571014280199</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01344137472375365</v>
+        <v>0.9558576662628151</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.069571014280199</v>
+        <v>1.496889030252255</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9558576662628151</v>
+        <v>99</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.496889030252255</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3961978865694442</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>1.229559601915581e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8627899883257377</v>
+        <v>4.199595742876862e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6891397137656012</v>
+        <v>2.455268921299136e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.199595742876862e-07</v>
+        <v>-0.0569395265642809</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.455268921299136e-06</v>
+        <v>0.07768852669521943</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0569395265642809</v>
+        <v>0.009271143340174526</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.07768852669521943</v>
+        <v>1.883655931585809</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009271143340174526</v>
+        <v>1.697854790768547</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.88045559904706</v>
+        <v>5.860834171310996</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.697854790768547</v>
+        <v>3.416783844952586e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.860834171310996</v>
+        <v>436619839.9477564</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.416783844952586e-16</v>
+        <v>2.738207368499691e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>436619839.9477564</v>
+        <v>65.13650276763899</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.738207368499691e-07</v>
+        <v>0.0001354669734818352</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>65.13650276763899</v>
+        <v>6.865431935729692</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001354669734818352</v>
+        <v>2.254102749222378</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.865431935729692</v>
+        <v>0.006385121415442359</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.254102749222378</v>
+        <v>3.373981553416803</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.006385121415442359</v>
+        <v>0.9550672989725276</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.373981553416803</v>
+        <v>1.462539910054272</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9550672989725276</v>
+        <v>99</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.462539910054272</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.6177749047546748</v>
       </c>
     </row>
@@ -5137,7 +5089,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.446830745785496</v>
+        <v>1.454188662974979</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.53334404977522</v>
@@ -5226,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.471247673666604</v>
+        <v>1.47969038274034</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.382944363413326</v>
@@ -5315,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.494427148871338</v>
+        <v>1.501363595073755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.455020163703904</v>
@@ -5404,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.505402372098324</v>
+        <v>1.512009520213888</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.605739283251455</v>
@@ -5493,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.522021995659694</v>
+        <v>1.527157304461128</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.492603765793992</v>
@@ -5582,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.535277306385186</v>
+        <v>1.539487531033622</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.513785355687832</v>
@@ -5671,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.557065213286331</v>
+        <v>1.56225631299696</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.638939370064195</v>
@@ -5760,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.559721444136539</v>
+        <v>1.571188318006823</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.6590320392094</v>
@@ -5849,7 +5801,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.600781769752606</v>
+        <v>1.607510697148527</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.633079159345521</v>
@@ -5938,7 +5890,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.596637465076881</v>
+        <v>1.601155851114921</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.634061571058959</v>
@@ -6027,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596770948050695</v>
+        <v>1.600474408267115</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.594492312490472</v>
@@ -6116,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.600935245087476</v>
+        <v>1.60845602399633</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.682182150281174</v>
@@ -6205,7 +6157,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.590250039106445</v>
+        <v>1.592567852577792</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.45341805117246</v>
@@ -6294,7 +6246,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.623577595054504</v>
+        <v>1.629111702734776</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.802491835214113</v>
@@ -6383,7 +6335,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.648352646598022</v>
+        <v>1.653354148489864</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.435736811040887</v>
@@ -6472,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.626191751161003</v>
+        <v>1.634164930159139</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.756686065006426</v>
@@ -6561,7 +6513,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.632750457739183</v>
+        <v>1.6296664856945</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.77586939140914</v>
@@ -6650,7 +6602,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.582709779901139</v>
+        <v>1.593164115939304</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.738368431326982</v>
@@ -6739,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.579329299069191</v>
+        <v>1.590010553479533</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.524249252171752</v>
@@ -6828,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.574738493261065</v>
+        <v>1.582515845406563</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.606752885695462</v>
@@ -6917,7 +6869,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.537461418236779</v>
+        <v>1.546408602413063</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.617645832972551</v>
@@ -7006,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535408893645182</v>
+        <v>1.541631603125221</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.661177694424302</v>
@@ -7095,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.542415581694172</v>
+        <v>1.549531562931892</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.579855548780968</v>
@@ -7184,7 +7136,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538483026450123</v>
+        <v>1.544152680179016</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.779078890258603</v>
@@ -7273,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.54287287634411</v>
+        <v>1.551540928740043</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.727509587662576</v>
@@ -7362,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.527199949231661</v>
+        <v>1.532669233180632</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.710206796953761</v>
@@ -7451,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.501179333401528</v>
+        <v>1.505060949827908</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.65712319114933</v>
@@ -7540,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.516353331536706</v>
+        <v>1.51617747525713</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.388441382862767</v>
@@ -7629,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.49795940966942</v>
+        <v>1.495332757416846</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.635292957243468</v>
@@ -7718,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.479283633299818</v>
+        <v>1.479261016262206</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.328973144045925</v>
@@ -7807,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.498590143968202</v>
+        <v>1.502305571740463</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.46394229936084</v>
@@ -7896,7 +7848,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.496934673580388</v>
+        <v>1.499959453762422</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.817098380433676</v>
@@ -7985,7 +7937,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524756093197078</v>
+        <v>1.52842196733177</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.56564191735697</v>
@@ -8074,7 +8026,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.515056552782774</v>
+        <v>1.519311817662792</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.646664226368462</v>
@@ -8163,7 +8115,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532863333818672</v>
+        <v>1.539558099932316</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.923865004009834</v>
@@ -8252,7 +8204,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.569937425667888</v>
+        <v>1.574089434012077</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.603153749307231</v>
@@ -8341,7 +8293,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.564163390680473</v>
+        <v>1.566028173671463</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.671783558231116</v>
@@ -8430,7 +8382,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.583501091001897</v>
+        <v>1.583028037832114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.518794860708466</v>
@@ -8519,7 +8471,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.564712076558628</v>
+        <v>1.566463918635815</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.546017399196937</v>
@@ -8608,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556821659552712</v>
+        <v>1.559055505078843</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.530093020419328</v>
@@ -8697,7 +8649,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.57025115179532</v>
+        <v>1.576810896345279</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.565558385754412</v>
@@ -8786,7 +8738,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.59797430012753</v>
+        <v>1.596742051614372</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.668633184446271</v>
@@ -8875,7 +8827,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.575543711837355</v>
+        <v>1.57670205736611</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.534259736494269</v>
@@ -8964,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606932368032071</v>
+        <v>1.605553156599886</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.418997060754303</v>
@@ -9053,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.604623822972194</v>
+        <v>1.608017401444227</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.488416201823862</v>
@@ -9142,7 +9094,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.610421206095694</v>
+        <v>1.612052034252302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.738364618018106</v>
@@ -9231,7 +9183,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.638884624084654</v>
+        <v>1.638675531438609</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.768456067560598</v>
@@ -9320,7 +9272,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.63211677284429</v>
+        <v>1.627461475385135</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.815990724919931</v>
@@ -9409,7 +9361,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627897013838867</v>
+        <v>1.617916309269573</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.489454205429974</v>
@@ -9498,7 +9450,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.603117620925069</v>
+        <v>1.592011641417503</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.591843330471757</v>
@@ -9587,7 +9539,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595834552095321</v>
+        <v>1.582321999288427</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.586860716552598</v>
@@ -9873,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.441475265639429</v>
+        <v>1.402078029414192</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.361911250789524</v>
@@ -9962,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.454711643004402</v>
+        <v>1.417967365428449</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.232904321507016</v>
@@ -10051,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.511136168614434</v>
+        <v>1.465683022486341</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.311154576070464</v>
@@ -10140,7 +10092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.523089609968301</v>
+        <v>1.474608337534783</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.380839028949566</v>
@@ -10229,7 +10181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556131446393541</v>
+        <v>1.509206423328325</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.341569947544587</v>
@@ -10318,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.575462125509278</v>
+        <v>1.514632686237857</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45223499526817</v>
@@ -10407,7 +10359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.564292625771958</v>
+        <v>1.519572389634879</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.431536429348065</v>
@@ -10496,7 +10448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.556270011424445</v>
+        <v>1.518771254171638</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.648456478037293</v>
@@ -10585,7 +10537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.561255423443533</v>
+        <v>1.521220888349684</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.709439349854128</v>
@@ -10674,7 +10626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.54746925825634</v>
+        <v>1.51681923217439</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.767016343192537</v>
@@ -10763,7 +10715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534124923993858</v>
+        <v>1.507991989567693</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.862667696316909</v>
@@ -10852,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.515073424588289</v>
+        <v>1.494163314938805</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.69984791594661</v>
@@ -10941,7 +10893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523069119215948</v>
+        <v>1.49618866392318</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.700905829814286</v>
@@ -11030,7 +10982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.518812602851821</v>
+        <v>1.491363554278359</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.574313494412856</v>
@@ -11119,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.491817603585648</v>
+        <v>1.459128073128775</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.377862916088236</v>
@@ -11208,7 +11160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.46193204882558</v>
+        <v>1.437966674998496</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.577000002730804</v>
@@ -11297,7 +11249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.435618361054419</v>
+        <v>1.405363520548987</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.273534487920366</v>
@@ -11386,7 +11338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.391077975737718</v>
+        <v>1.37713380236707</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.231164230445331</v>
@@ -11475,7 +11427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.385725450562324</v>
+        <v>1.371448674632865</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.327948873178109</v>
@@ -11564,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.364105005907692</v>
+        <v>1.362178779240116</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.241739089782621</v>
@@ -11653,7 +11605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.364588468360349</v>
+        <v>1.366877305484535</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.192189030114939</v>
@@ -11742,7 +11694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.375973958470792</v>
+        <v>1.375719093954876</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.366712606302133</v>
@@ -11831,7 +11783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.388437882451607</v>
+        <v>1.392290559312781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.262656894962793</v>
@@ -11920,7 +11872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.396297170071864</v>
+        <v>1.401367802918065</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.349053813988713</v>
@@ -12009,7 +11961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.383560750988541</v>
+        <v>1.383931492653316</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.39512255603637</v>
@@ -12098,7 +12050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.382854496406151</v>
+        <v>1.38443021481764</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.415157007135814</v>
@@ -12187,7 +12139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.384617468920779</v>
+        <v>1.38736911389399</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.424547170748702</v>
@@ -12276,7 +12228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.379875345355417</v>
+        <v>1.386082592389058</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.389111133437174</v>
@@ -12365,7 +12317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.378781485152678</v>
+        <v>1.385500971310977</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.324679286078138</v>
@@ -12454,7 +12406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.383813799954759</v>
+        <v>1.391729604149669</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.162145377940555</v>
@@ -12543,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.386795808841691</v>
+        <v>1.404158845084863</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.488164292616755</v>
@@ -12632,7 +12584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.411897957662666</v>
+        <v>1.427790571351731</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.224289446790756</v>
@@ -12721,7 +12673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432311422841526</v>
+        <v>1.449285832668683</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.388637913039817</v>
@@ -12810,7 +12762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.445114448265328</v>
+        <v>1.460059553260321</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.190636098357999</v>
@@ -12899,7 +12851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.449171107045727</v>
+        <v>1.455638997172767</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.530804026250047</v>
@@ -12988,7 +12940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.451868235944561</v>
+        <v>1.451541599883687</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.786629642946465</v>
@@ -13077,7 +13029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.448260700022186</v>
+        <v>1.445770154155709</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.76986511669287</v>
@@ -13166,7 +13118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.448916498965035</v>
+        <v>1.440649256853438</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.733917151091387</v>
@@ -13255,7 +13207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.437899031890263</v>
+        <v>1.429132571593623</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.529477193685991</v>
@@ -13344,7 +13296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.460229907449691</v>
+        <v>1.448628080370619</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.666239507505772</v>
@@ -13433,7 +13385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.46228804106564</v>
+        <v>1.452304302979108</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.754971042641304</v>
@@ -13522,7 +13474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.469869085487687</v>
+        <v>1.451705972260577</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.810478630684015</v>
@@ -13611,7 +13563,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.445192228497332</v>
+        <v>1.42910967812703</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.759043112179042</v>
@@ -13700,7 +13652,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.445984815246456</v>
+        <v>1.426189224778361</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.647045053634897</v>
@@ -13789,7 +13741,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.463051611171304</v>
+        <v>1.437002319970305</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.672744719151682</v>
@@ -13878,7 +13830,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.486421123571922</v>
+        <v>1.449057606819437</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.511180986258078</v>
@@ -13967,7 +13919,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.49462001906087</v>
+        <v>1.457294214311865</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.654075729026783</v>
@@ -14056,7 +14008,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495968706162367</v>
+        <v>1.455850321226334</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.716699544944119</v>
@@ -14145,7 +14097,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.481907356570075</v>
+        <v>1.444317705353954</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.406270460846802</v>
@@ -14234,7 +14186,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.492863113846302</v>
+        <v>1.452395848238993</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.513113134725503</v>
@@ -14323,7 +14275,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.501887765071241</v>
+        <v>1.455620569532973</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.322300929459101</v>
@@ -14609,7 +14561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653394344235057</v>
+        <v>1.628372154898455</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.912218636012504</v>
@@ -14698,7 +14650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.666333574456357</v>
+        <v>1.645185405768174</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.084074580916903</v>
@@ -14787,7 +14739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.677210705726877</v>
+        <v>1.651844324723228</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.973663708043364</v>
@@ -14876,7 +14828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.684427502838463</v>
+        <v>1.648185011750228</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.874931378318574</v>
@@ -14965,7 +14917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.710702403536279</v>
+        <v>1.667760620248798</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.093161978603614</v>
@@ -15054,7 +15006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.714567261157497</v>
+        <v>1.667044632278356</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.313928892383056</v>
@@ -15143,7 +15095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.720837360202595</v>
+        <v>1.675380114408328</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.091360023285488</v>
@@ -15232,7 +15184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.733389656382461</v>
+        <v>1.693801243067366</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.684585690379509</v>
@@ -15321,7 +15273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.745015591953818</v>
+        <v>1.700053227074669</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.189103995014172</v>
@@ -15410,7 +15362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.719996560037688</v>
+        <v>1.671890990395862</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.522321959364914</v>
@@ -15499,7 +15451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.717641304635413</v>
+        <v>1.66997902869021</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.207200510132576</v>
@@ -15588,7 +15540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.70374518892013</v>
+        <v>1.66420956527412</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.511563105228358</v>
@@ -15677,7 +15629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.705379722591909</v>
+        <v>1.662959954558447</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.082337885768481</v>
@@ -15766,7 +15718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.711375598216518</v>
+        <v>1.666642776202181</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.57154238111033</v>
@@ -15855,7 +15807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.710307124291057</v>
+        <v>1.663554318758076</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.028935845463631</v>
@@ -15944,7 +15896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.695973717132078</v>
+        <v>1.652931449789543</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.630268638048278</v>
@@ -16033,7 +15985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.684485496632591</v>
+        <v>1.633030087059941</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.414203460319111</v>
@@ -16122,7 +16074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666547572980336</v>
+        <v>1.625923741272683</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.473212793947802</v>
@@ -16211,7 +16163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.661272339929679</v>
+        <v>1.620143143954975</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.386278040388719</v>
@@ -16300,7 +16252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.63192919385473</v>
+        <v>1.600229272337796</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.454379067104084</v>
@@ -16389,7 +16341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.621763251542648</v>
+        <v>1.591030036300133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.276659227253161</v>
@@ -16478,7 +16430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.631775916284589</v>
+        <v>1.595909093795509</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.22771503990812</v>
@@ -16567,7 +16519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.630768919185092</v>
+        <v>1.59466267805598</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.35687091253512</v>
@@ -16656,7 +16608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.623869181179578</v>
+        <v>1.585419631172513</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.287528547996587</v>
@@ -16745,7 +16697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614079477836075</v>
+        <v>1.5818908463152</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.91008170491686</v>
@@ -16834,7 +16786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602228722709122</v>
+        <v>1.565889453254079</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.014514314221061</v>
@@ -16923,7 +16875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.595511750027451</v>
+        <v>1.558401947562095</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.967244190583802</v>
@@ -17012,7 +16964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.581981036079272</v>
+        <v>1.543758159052439</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.954825897522835</v>
@@ -17101,7 +17053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.577810443802477</v>
+        <v>1.541388415984075</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.066088534965747</v>
@@ -17190,7 +17142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.580537865857848</v>
+        <v>1.549593577480211</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.794234710963397</v>
@@ -17279,7 +17231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.588644902352491</v>
+        <v>1.561371636063533</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.103488295185169</v>
@@ -17368,7 +17320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.594380298681541</v>
+        <v>1.565824185949152</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.11748693440859</v>
@@ -17457,7 +17409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.60657875514354</v>
+        <v>1.573722388872227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.897399996785931</v>
@@ -17546,7 +17498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616206817330476</v>
+        <v>1.582595078612958</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.666022326527556</v>
@@ -17635,7 +17587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.634141784130544</v>
+        <v>1.596999765136067</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.801414453316357</v>
@@ -17724,7 +17676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.651873183688158</v>
+        <v>1.615026719277904</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.040338861625252</v>
@@ -17813,7 +17765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64631315865199</v>
+        <v>1.603361784457112</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.971255032612547</v>
@@ -17902,7 +17854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.64954221882613</v>
+        <v>1.604108485276958</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.813341613033847</v>
@@ -17991,7 +17943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.649327603155722</v>
+        <v>1.60937846791043</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.848389278058514</v>
@@ -18080,7 +18032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.678623233024692</v>
+        <v>1.63158107411997</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.951166042769506</v>
@@ -18169,7 +18121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.703626988640289</v>
+        <v>1.659558896028096</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.933202833944872</v>
@@ -18258,7 +18210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.711546217758234</v>
+        <v>1.655211823420325</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.428422569241845</v>
@@ -18347,7 +18299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.717080530548914</v>
+        <v>1.659163229600259</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.379507285012193</v>
@@ -18436,7 +18388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.738876882540755</v>
+        <v>1.671048909195561</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.136738336477125</v>
@@ -18525,7 +18477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.732191944827125</v>
+        <v>1.665072665071251</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.715577977829708</v>
@@ -18614,7 +18566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.723247215917922</v>
+        <v>1.656236838871686</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.912419277815489</v>
@@ -18703,7 +18655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.730740179289159</v>
+        <v>1.663347213340244</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.615969819992522</v>
@@ -18792,7 +18744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.724895294649401</v>
+        <v>1.654727992107112</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.386734638546669</v>
@@ -18881,7 +18833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.721983887094221</v>
+        <v>1.641099613856803</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.423780567434058</v>
@@ -18970,7 +18922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.71636882623348</v>
+        <v>1.639890369178966</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.373839632891378</v>
@@ -19059,7 +19011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.714534706589552</v>
+        <v>1.633555935487678</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.255223542213598</v>
@@ -19345,7 +19297,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.770609205147501</v>
+        <v>1.737642200371273</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.150249375619866</v>
@@ -19434,7 +19386,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.775856351267412</v>
+        <v>1.742289001659315</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.061447069996002</v>
@@ -19523,7 +19475,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.785467383209966</v>
+        <v>1.749197847120322</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.079578903485271</v>
@@ -19612,7 +19564,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.794719928251642</v>
+        <v>1.749014702948448</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.879072295195144</v>
@@ -19701,7 +19653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.785551101791307</v>
+        <v>1.738327445633099</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.607692615198236</v>
@@ -19790,7 +19742,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.785341410952802</v>
+        <v>1.732164279013859</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.624551505667067</v>
@@ -19879,7 +19831,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786863053590121</v>
+        <v>1.739663952842224</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.73930006352578</v>
@@ -19968,7 +19920,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.790538564295381</v>
+        <v>1.745492158985213</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.351178023534803</v>
@@ -20057,7 +20009,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.794813851815563</v>
+        <v>1.753501697890187</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.723532038800665</v>
@@ -20146,7 +20098,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.789657958592322</v>
+        <v>1.744830907093714</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.587175328617521</v>
@@ -20235,7 +20187,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.800169957367709</v>
+        <v>1.753975747541487</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.008894171775967</v>
@@ -20324,7 +20276,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.791786523601558</v>
+        <v>1.747414741773912</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.684513247040445</v>
@@ -20413,7 +20365,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.804884120422276</v>
+        <v>1.759592115745398</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.052038598122609</v>
@@ -20502,7 +20454,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.808057490788012</v>
+        <v>1.760086121501266</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.830716943166207</v>
@@ -20591,7 +20543,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.808121124603176</v>
+        <v>1.75954520649182</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.657701163632374</v>
@@ -20680,7 +20632,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.808732765778577</v>
+        <v>1.756852765860407</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.086768971624645</v>
@@ -20769,7 +20721,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.797699298996134</v>
+        <v>1.742892116758763</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.987064560591522</v>
@@ -20858,7 +20810,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.798000818161131</v>
+        <v>1.742686545211824</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.047940388278769</v>
@@ -20947,7 +20899,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.797950312176845</v>
+        <v>1.743025968206863</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.400564033216448</v>
@@ -21036,7 +20988,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.798776758842298</v>
+        <v>1.750919360641423</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.17971714616255</v>
@@ -21125,7 +21077,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.799533087222634</v>
+        <v>1.746702473651334</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.825762222720136</v>
@@ -21214,7 +21166,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.799787358268987</v>
+        <v>1.736146473141766</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.953815239353297</v>
@@ -21303,7 +21255,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.799617483175418</v>
+        <v>1.738841914432927</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.690692671006441</v>
@@ -21392,7 +21344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.797263425387798</v>
+        <v>1.735048744408209</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.213536832176351</v>
@@ -21481,7 +21433,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.783349196709197</v>
+        <v>1.728724051744701</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.715804990912294</v>
@@ -21570,7 +21522,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.77954186230217</v>
+        <v>1.715846366295789</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.154930881627886</v>
@@ -21659,7 +21611,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.780922584812604</v>
+        <v>1.719305161007646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.203169287186318</v>
@@ -21748,7 +21700,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.767724240415354</v>
+        <v>1.70834758261148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.708242311126933</v>
@@ -21837,7 +21789,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.767672176651224</v>
+        <v>1.709930812603195</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.522715713790677</v>
@@ -21926,7 +21878,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.755146097784179</v>
+        <v>1.700852933757222</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.503615740593403</v>
@@ -22015,7 +21967,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.749975596737433</v>
+        <v>1.69379414041315</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.497957338897625</v>
@@ -22104,7 +22056,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.757466179351253</v>
+        <v>1.697301456204892</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.388988162542355</v>
@@ -22193,7 +22145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.762334327062562</v>
+        <v>1.704084975647529</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.47807609230565</v>
@@ -22282,7 +22234,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.77126003415483</v>
+        <v>1.715884750131472</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.234027879755047</v>
@@ -22371,7 +22323,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.774692531097703</v>
+        <v>1.718192646356025</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.063243202830979</v>
@@ -22460,7 +22412,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.776004701328767</v>
+        <v>1.725607542833313</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.653124709446902</v>
@@ -22549,7 +22501,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.769796653992874</v>
+        <v>1.724223274581432</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.436528101340651</v>
@@ -22638,7 +22590,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.7708404996565</v>
+        <v>1.719868427303609</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.209314513996667</v>
@@ -22727,7 +22679,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763462950192948</v>
+        <v>1.715741726940925</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.061512309434956</v>
@@ -22816,7 +22768,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.776547983547732</v>
+        <v>1.725853278139809</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.711519728036587</v>
@@ -22905,7 +22857,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.777261617409542</v>
+        <v>1.734641824234006</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.023198138588459</v>
@@ -22994,7 +22946,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.773770022143728</v>
+        <v>1.721385131205734</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.669590625728819</v>
@@ -23083,7 +23035,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.774891295273104</v>
+        <v>1.718021765527182</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.808564070139857</v>
@@ -23172,7 +23124,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.779575092051609</v>
+        <v>1.720708597433203</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.844039524209385</v>
@@ -23261,7 +23213,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.790962555788327</v>
+        <v>1.728156473150509</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.741360496431666</v>
@@ -23350,7 +23302,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.79617567019233</v>
+        <v>1.736736415224645</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.547964959654232</v>
@@ -23439,7 +23391,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.799601629205183</v>
+        <v>1.741236395737241</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.614029383324466</v>
@@ -23528,7 +23480,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.789927779763993</v>
+        <v>1.712986462199362</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.862919122306196</v>
@@ -23617,7 +23569,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.776014258297341</v>
+        <v>1.697140055188965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.77188515674407</v>
@@ -23706,7 +23658,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.772630429849817</v>
+        <v>1.693531167207139</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.675988882220136</v>
@@ -23795,7 +23747,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.775161528990345</v>
+        <v>1.691314188853812</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.540966684060157</v>
@@ -24081,7 +24033,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.424291616724663</v>
+        <v>1.420792470251626</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.280985216101497</v>
@@ -24170,7 +24122,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.434455589589129</v>
+        <v>1.431288421417473</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.296649813506297</v>
@@ -24259,7 +24211,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.461964806149809</v>
+        <v>1.460128608284192</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.139399470270411</v>
@@ -24348,7 +24300,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.474502596284611</v>
+        <v>1.465108277851436</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.256819125189665</v>
@@ -24437,7 +24389,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.501425833925977</v>
+        <v>1.485319997421889</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.246463700995214</v>
@@ -24526,7 +24478,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52528781143208</v>
+        <v>1.506331798317796</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.233108942098142</v>
@@ -24615,7 +24567,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.520669094345669</v>
+        <v>1.503162871259598</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.207481037921476</v>
@@ -24704,7 +24656,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.512084264062609</v>
+        <v>1.496512157134812</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.771668057777666</v>
@@ -24793,7 +24745,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.503318606036167</v>
+        <v>1.489823237478866</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.574359177983681</v>
@@ -24882,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.493180687831432</v>
+        <v>1.475752756335451</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.820722591323728</v>
@@ -24971,7 +24923,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.491453625059837</v>
+        <v>1.47128450074903</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.799491765343248</v>
@@ -25060,7 +25012,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.472932994767112</v>
+        <v>1.452812104487841</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.546583141500588</v>
@@ -25149,7 +25101,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.469836972993878</v>
+        <v>1.453831882397028</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.269163675017029</v>
@@ -25238,7 +25190,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.469669302730515</v>
+        <v>1.446129358089781</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.477112153481807</v>
@@ -25327,7 +25279,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.439887335189252</v>
+        <v>1.413273709081954</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.598402353721887</v>
@@ -25416,7 +25368,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.416140818698461</v>
+        <v>1.400622076722718</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.701230208058589</v>
@@ -25505,7 +25457,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.407874421352912</v>
+        <v>1.388275914885979</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.636246867586544</v>
@@ -25594,7 +25546,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.384285385302702</v>
+        <v>1.369214412578861</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.567618203862503</v>
@@ -25683,7 +25635,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.40147235651533</v>
+        <v>1.391573094679483</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.603542566604126</v>
@@ -25772,7 +25724,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.414147389596843</v>
+        <v>1.406831505583981</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.521463435781663</v>
@@ -25861,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.428967399455198</v>
+        <v>1.422690523254443</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.449003261422163</v>
@@ -25950,7 +25902,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43687804377724</v>
+        <v>1.429193844772585</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.638657037405237</v>
@@ -26039,7 +25991,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.434543522864637</v>
+        <v>1.43661499119014</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.764195980257053</v>
@@ -26128,7 +26080,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.454174051228957</v>
+        <v>1.457301411626627</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.428913810500708</v>
@@ -26217,7 +26169,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.458397831564752</v>
+        <v>1.45857917446394</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.616852585861577</v>
@@ -26306,7 +26258,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.462935250442689</v>
+        <v>1.458558729134679</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.505907146375293</v>
@@ -26395,7 +26347,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.467787440200436</v>
+        <v>1.465159841627756</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.616992266435122</v>
@@ -26484,7 +26436,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.472370021469904</v>
+        <v>1.469297318547841</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.451184085558257</v>
@@ -26573,7 +26525,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.471727638515552</v>
+        <v>1.471929619055814</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.595112595671643</v>
@@ -26662,7 +26614,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.477444273832912</v>
+        <v>1.476834676703961</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.570954319545759</v>
@@ -26751,7 +26703,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.499151496028842</v>
+        <v>1.496852139366101</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.806224275849487</v>
@@ -26840,7 +26792,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.509361556509014</v>
+        <v>1.507419203756561</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.743720375826668</v>
@@ -26929,7 +26881,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.526561340855435</v>
+        <v>1.530663993205745</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.995137850357024</v>
@@ -27018,7 +26970,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512414548730237</v>
+        <v>1.511858771707085</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.742787291378795</v>
@@ -27107,7 +27059,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.493584429186382</v>
+        <v>1.486897145716479</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.884016638467267</v>
@@ -27196,7 +27148,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.489964966815764</v>
+        <v>1.480098851796031</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.780131631987691</v>
@@ -27285,7 +27237,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.489921935198189</v>
+        <v>1.475731012405179</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.483753780274812</v>
@@ -27374,7 +27326,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.491231016156217</v>
+        <v>1.476024501970979</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.926262925833683</v>
@@ -27463,7 +27415,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.489599424788588</v>
+        <v>1.475435432086356</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.970002632766151</v>
@@ -27552,7 +27504,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.486994532904311</v>
+        <v>1.473208461023162</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.892817709324326</v>
@@ -27641,7 +27593,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.479337278313965</v>
+        <v>1.473121924031429</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.725991350505369</v>
@@ -27730,7 +27682,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.470644881884933</v>
+        <v>1.454529068350112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.781983445245893</v>
@@ -27819,7 +27771,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.439506235902962</v>
+        <v>1.429234099308614</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.766248382236868</v>
@@ -27908,7 +27860,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.446556079109751</v>
+        <v>1.430457490549495</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.498143817257752</v>
@@ -27997,7 +27949,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.466314077650699</v>
+        <v>1.450656415429939</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.58605507407632</v>
@@ -28086,7 +28038,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.467845010679574</v>
+        <v>1.448183947537591</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.76478933247129</v>
@@ -28175,7 +28127,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.482439068605402</v>
+        <v>1.45864909566713</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.507650574902552</v>
@@ -28264,7 +28216,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.482532288429758</v>
+        <v>1.453985869536822</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.44634072742879</v>
@@ -28353,7 +28305,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.480872410882641</v>
+        <v>1.452756846504962</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.740249401082302</v>
@@ -28442,7 +28394,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.490066869731493</v>
+        <v>1.469161675798206</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.695030661078507</v>
@@ -28531,7 +28483,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487841216459001</v>
+        <v>1.470053132864799</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.626231016085284</v>
@@ -28817,7 +28769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671089238050859</v>
+        <v>1.679452357924637</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.000816347249803</v>
@@ -28906,7 +28858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.694918704909333</v>
+        <v>1.701253839958469</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.27659416502754</v>
@@ -28995,7 +28947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.720983297664448</v>
+        <v>1.727036003720524</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.397564089020379</v>
@@ -29084,7 +29036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.731349423445253</v>
+        <v>1.736269957420135</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.285020396529859</v>
@@ -29173,7 +29125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.75854291862704</v>
+        <v>1.754603343751404</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.455107092679026</v>
@@ -29262,7 +29214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.760500358752319</v>
+        <v>1.754783742104272</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.236810774376878</v>
@@ -29351,7 +29303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.776968726010218</v>
+        <v>1.76923830409332</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.434682232747833</v>
@@ -29440,7 +29392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.784572640096839</v>
+        <v>1.787504868008942</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.318846878136345</v>
@@ -29529,7 +29481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.817858093751134</v>
+        <v>1.814950828059529</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.685517779579594</v>
@@ -29618,7 +29570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.819000817769126</v>
+        <v>1.814894539416966</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.373515631129749</v>
@@ -29707,7 +29659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.818073399724074</v>
+        <v>1.809884696369061</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.312453637044633</v>
@@ -29796,7 +29748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.812597717739982</v>
+        <v>1.812951833820606</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.385461586347192</v>
@@ -29885,7 +29837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.799455188509123</v>
+        <v>1.802825368024026</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.16901492507893</v>
@@ -29974,7 +29926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.831983126408904</v>
+        <v>1.838810291262783</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.482324860129823</v>
@@ -30063,7 +30015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.844810572961635</v>
+        <v>1.855056433992192</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.227776479098984</v>
@@ -30152,7 +30104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.834614729337376</v>
+        <v>1.842001007561558</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.530907119016807</v>
@@ -30241,7 +30193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.829948022788216</v>
+        <v>1.832134774378464</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.350467835969507</v>
@@ -30330,7 +30282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.817390211833108</v>
+        <v>1.820880893520781</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.288375041576541</v>
@@ -30419,7 +30371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.815103405959569</v>
+        <v>1.821983485555287</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.359144936369389</v>
@@ -30508,7 +30460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.811236634270364</v>
+        <v>1.818227990230996</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.355793256899161</v>
@@ -30597,7 +30549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.790893014620094</v>
+        <v>1.798113342442486</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.591134950514321</v>
@@ -30686,7 +30638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.781246152587846</v>
+        <v>1.784917872483213</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.198322372957012</v>
@@ -30775,7 +30727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.772738664561693</v>
+        <v>1.770391648326665</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.279495785737277</v>
@@ -30864,7 +30816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.768263016755488</v>
+        <v>1.760452285490891</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.230184570721719</v>
@@ -30953,7 +30905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.770193079974446</v>
+        <v>1.764205846426711</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.355338830092796</v>
@@ -31042,7 +30994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.756381762613927</v>
+        <v>1.744726514527037</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.201195176502525</v>
@@ -31131,7 +31083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.734046828105871</v>
+        <v>1.723148605472142</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.370584745861879</v>
@@ -31220,7 +31172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.758319452217831</v>
+        <v>1.741243914824846</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.161627082340439</v>
@@ -31309,7 +31261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.740037884490568</v>
+        <v>1.71783278094307</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.227296293429251</v>
@@ -31398,7 +31350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.720894742330735</v>
+        <v>1.709071595113399</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.859887442829465</v>
@@ -31487,7 +31439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.729854608118557</v>
+        <v>1.720602541849162</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.14653577733354</v>
@@ -31576,7 +31528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.722849910000729</v>
+        <v>1.7181206386816</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.600774562644095</v>
@@ -31665,7 +31617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.735252630192137</v>
+        <v>1.735322069189918</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.088275514186097</v>
@@ -31754,7 +31706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.723428039578203</v>
+        <v>1.725318651610048</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.522851230867525</v>
@@ -31843,7 +31795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.72521837615689</v>
+        <v>1.727521003517219</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.572177700214674</v>
@@ -31932,7 +31884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.749747895205733</v>
+        <v>1.751041641866768</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.362461166182575</v>
@@ -32021,7 +31973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.743242857201927</v>
+        <v>1.745897367722475</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.154078781590607</v>
@@ -32110,7 +32062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.762723445891993</v>
+        <v>1.766232872060953</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.099280946224505</v>
@@ -32199,7 +32151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.755765090908275</v>
+        <v>1.763251377760114</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.187684618006974</v>
@@ -32288,7 +32240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.749032981342661</v>
+        <v>1.753909622710971</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.067153575458897</v>
@@ -32377,7 +32329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.758319857844064</v>
+        <v>1.767122527161102</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.467695235434994</v>
@@ -32466,7 +32418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.7768750062445</v>
+        <v>1.783512339844431</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.250851834769893</v>
@@ -32555,7 +32507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.751778461409106</v>
+        <v>1.757812318847645</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.06886531317801</v>
@@ -32644,7 +32596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.763872626992248</v>
+        <v>1.763643277364527</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.021019378271511</v>
@@ -32733,7 +32685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.760182628681464</v>
+        <v>1.758443524056687</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.267874813397877</v>
@@ -32822,7 +32774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.772647973097075</v>
+        <v>1.770259736710553</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.304751262081029</v>
@@ -32911,7 +32863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.796962834641046</v>
+        <v>1.783688096193613</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.138205591756066</v>
@@ -33000,7 +32952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.793493484750417</v>
+        <v>1.769852472236125</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.4238109340379</v>
@@ -33089,7 +33041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.794829895686427</v>
+        <v>1.766710200007668</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.838009061579911</v>
@@ -33178,7 +33130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.781231112552407</v>
+        <v>1.754938192468291</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.264134065862939</v>
@@ -33267,7 +33219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.778125247026013</v>
+        <v>1.745930053027905</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.40837896291191</v>
